--- a/biology/Zoologie/Astrodia/Astrodia.xlsx
+++ b/biology/Zoologie/Astrodia/Astrodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astrodia est un genre d'ophiures (échinodermes), de la famille des Asteronychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrodia est un genre d'ophiures (échinodermes), de la famille des Asteronychidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des ophiures euryalides « simples » pourvues de cinq bras très longs mais non ramifiés. 
-Ce genre se distingue de sa famille (et notamment du genre très proche Ophiocreas) par l'absence de crochets sur les bras (y compris sur la partie la plus distale). On trouve entre deux et quatre épines cylindriques à côté de chaque pore tentaculaire, et deux petites fentes génitales sont visibles à la base de chaque interradius. Le disque central est parfois protégé par des ossicules externes[2]. 
+Ce genre se distingue de sa famille (et notamment du genre très proche Ophiocreas) par l'absence de crochets sur les bras (y compris sur la partie la plus distale). On trouve entre deux et quatre épines cylindriques à côté de chaque pore tentaculaire, et deux petites fentes génitales sont visibles à la base de chaque interradius. Le disque central est parfois protégé par des ossicules externes. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 janvier 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 janvier 2016) :
 Astrodia abyssicola (Lyman, 1879) -- Océan Pacifique nord-ouest
 Astrodia duospina Xie, Lu, Pang &amp; Zhang, 2022 -- Pacifique ouest
 Astrodia excavata (Lütken &amp; Mortensen, 1899) -- Pacifique est
